--- a/public/template/CANMatrix_Demo.xlsx
+++ b/public/template/CANMatrix_Demo.xlsx
@@ -3,709 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271F94CA-6EF9-42DA-8B0F-D4D4B7AAC9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6379EE-6DC9-4BEA-BB73-2977D2EBA83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAN0" sheetId="4" r:id="rId1"/>
     <sheet name="CAN1" sheetId="9" r:id="rId2"/>
     <sheet name="CAN2" sheetId="10" r:id="rId3"/>
-    <sheet name="填写说明" sheetId="7" r:id="rId4"/>
-    <sheet name="修改记录" sheetId="8" r:id="rId5"/>
+    <sheet name="Modify History" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-报文名称中请不要使用换行符、空格等无效格式。
-请一定填写报文名称，报文名称不能为空。
-请不要填写重复的报文名称。
-报文与报文之间请保持1个空行。
-信号逐行填写，报文信息只填写在属于该报文的信号的第一行。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入报文类型。
-报文类型只能为："Normal"，"NM"，"Diag"中的一个。
-请一定填写报文类型，报文类型不能为空。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入报文ID，高于7FF为扩展帧，否则为标准帧。
-请确定报文ID为16进制正整数。
-报文ID可以带有"0x"标识，也可不带。
-请一定填写报文ID，报文ID不能为空。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入报文发送类型。
-报文发送类型只能为："Cycle"，"Event"，" IfActive"，"CE"，"CA"中的一个。
-请确定大小写与建议值保持一致。
-请一定填写报文发送类型，报文发送类型不能为空。
-报文发送类型为"Event"时，报文中至少有一个信号的发送类型为"Event"。
-报文发送类型为"IfActive"时，报文中至少有一个信号的发送类型为"IfActive"。
-报文发送类型为"CE"时，报文中至少有一个信号的发送类型为"Event"。
-报文发送类型为"CA"时，报文中至少有一个信号的发送类型为"IfActive"。
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入报文周期时间，单位ms。
-请确定报文周期时间为10进制正整数。
-报文周期时间可以为空。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入报文长度。
-请确定报文长度为10进制正整数。
-报文长度最好不要超过"8"。
-请一定填写报文长度，报文长度不能为空。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入信号名称。
-信号名称只能为数字、下划线、字母，长度不能超过32个字符。
-信号名称中请不要使用换行符、空格等无效格式。
-请一定填写信号名称，信号名称不能为空。
-信号信息逐行填写。
-请不要填写重复的信号名称。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入信号描述。
-信号描述可以为空。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入信号值描述。
-信号值描述中的信号值默认为10进制正整数。
-请确定信号值描述的值在信号总线最小值和信号总线最大值之间。
-信号值描述中值和值描述必须成对出现。
-值与值描述之间使用英文冒号，中文冒号，等于号分隔，例如："1:On"，"1：On"，"1=On"。
-多个值预留可以不填，例如："3~7:reserved"。
-1个信号的信号值描述全部写在1个单元格里，1个值占1行文字，使用换行符隔开。
-如果信号是离散信号，不允许填写值描述。
-请确定信号值描述的值没有超过信号长度能表达的值范围。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入信号排列格式。
-信号排列格式只能为："Intel"，"Motorola LSB"，"Motorola MSB"中的一种。
-请一定填写信号排列格式，信号排列格式不能为空。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入信号起始字节。
-请一定填写信号起始字节，信号起始字节不能为空。
-请确定信号起始字节为10进制正整数。
-请确定信号的起始字节与起始位保持一致。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入信号起始位。
-请一定填写信号起始位，起始位不能为空。
-请确定信号起始位为10进制正整数。
-请确定报文中的信号不重复排列。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入信号发送类型。
-信号发送类型只能为："Cycle"，"OnWrite"，"OnWriteWithRepetition"，"OnChange"，"OnChangeWithRepetition"，"IfActive"，"IfActiveWithRepetition"中的一种。
-请一定填写信号发送类型，信号发送类型不能为空。
-当信号所在报文的发送类型为"Cycle"时，信号发送类型只能为"Cycle"。
-当信号所在报文的发送类型为"Event"时，信号发送类型只能为"OnWrite"，"OnWriteWithRepetition"，"OnChange"，"OnChangeWithRepetition"中的一种。
-当信号所在报文的发送类型为"IfActive"时，信号发送类型只能为"IfActive"，"IfActiveWithRepetition"中的一种。
-当信号所在报文的发送类型为"CE"时，信号发送类型只能为"OnWrite"，"OnWriteWithRepetition"，"OnChange"，"OnChangeWithRepetition"中的一种。
-当信号所在报文的发送类型为"CA"时，信号发送类型只能为"IfActive"，"IfActiveWithRepetition"中的一种。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入信号长度。
-请一定填写信号长度，信号长度不能为空。
-请确认信号长度为10进制正整数。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入信号数据类型。
-信号数据类型只能为："Unsigned"，"Signed"，"IEEE float"，"IEEE Double"中的一种。
-请一定填写信号数据类型，信号数据类型不能为空。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入信号精度。
-信号精度只能为数字、小数点。
-信号精度中请不要使用换行符、空格等无效格式。
-请一定填写信号精度，信号精度不能为空。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入信号偏移量。
-信号偏移量只能为数字、小数点、负号。
-信号偏移量中请不要使用换行符、空格等无效格式。
-请一定填写信号偏移量，信号偏移量不能为空。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入信号物理最小值。
-信号物理最小值只能为数字、小数点、负号。
-信号物理最小值中请不要使用换行符、空格等无效格式。
-请一定填写信号物理最小值，信号物理最小值不能为空。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入信号物理最大值。
-信号物理最大值只能为数字、小数点、负号。
-信号物理最大值中请不要使用换行符、空格等无效格式。
-请一定填写信号物理最大值，信号物理最大值不能为空。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入信号初始值，可以为空。
-请确定信号初始值为16进制正整数。
-请确定信号初始值在信号总线最小值和信号总线最大值之间。
-信号初始值可以带有"0x"标识。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入信号无效值，信号无效值可以为空。
-请确定信号无效值为16进制正整数。
-请确定信号无效值在信号总线最小值和信号总线最大值之间。
-信号无效值可以带有"0x"标识。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请输入信号单位。
-信号单位可以为空。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-如果是发送节点，在报文所在行、节点所在列对应的单元格输入"S"，不区分大小写。
-如果是接收节点，在报文所在行、节点所在列对应的单元格输入"R"，也可以不填。
-请确定报文一定有发送节点。
-信号可以没有接收节点。
-节点名称与个数根据实际情况自行增减。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="140">
   <si>
     <t>VCU</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1320,14 +633,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>扶手箱“+”按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>扶手箱“-”按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>经济模式按钮</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1336,24 +641,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>PTO离合器控制目标</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：打开
-1：结合</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>差速锁控制目标</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>目标驾驶模式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖拉机工作模式</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1494,11 +786,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>0：松开
-1：按下</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>0：打开
 1：结合</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -1508,13 +795,6 @@
 1：R
 2：N
 3：D</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：手动模式
-1：道路模式
-2：田间模式
-3：预留</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1689,12 +969,45 @@
   <si>
     <t>2025.01.15</t>
   </si>
+  <si>
+    <t>发动机干预转速请求</t>
+  </si>
+  <si>
+    <t>0：open
+1：close</t>
+  </si>
+  <si>
+    <t>0 松开
+1 按下</t>
+  </si>
+  <si>
+    <t>0:松开
+1:按下</t>
+  </si>
+  <si>
+    <t>加档按钮</t>
+  </si>
+  <si>
+    <t>减档按钮</t>
+  </si>
+  <si>
+    <t>工作模式</t>
+  </si>
+  <si>
+    <t>0：手动模式
+1：道路模式
+2：其他模式
+3：预留</t>
+  </si>
+  <si>
+    <t>后驱离合器控制目标</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1837,21 +1150,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2015,7 +1313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2115,10 +1413,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2144,23 +1442,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2529,11 +1823,11 @@
   </sheetPr>
   <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -2556,114 +1850,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="12" customFormat="1" ht="48" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="W1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="47"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="46"/>
     </row>
     <row r="2" spans="1:25" s="12" customFormat="1" ht="48" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
       <c r="W2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Y2" s="30" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="13" customFormat="1" collapsed="1">
       <c r="A3" s="31" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>1</v>
@@ -2699,7 +1993,7 @@
       <c r="W3" s="31"/>
       <c r="X3" s="31"/>
       <c r="Y3" s="31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:25" hidden="1" outlineLevel="1">
@@ -2751,7 +2045,7 @@
       </c>
       <c r="U4" s="22"/>
       <c r="V4" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
@@ -3029,7 +2323,7 @@
     </row>
     <row r="15" spans="1:25" s="13" customFormat="1" collapsed="1">
       <c r="A15" s="31" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>1</v>
@@ -3117,7 +2411,7 @@
       </c>
       <c r="U16" s="19"/>
       <c r="V16" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
@@ -3172,7 +2466,7 @@
       </c>
       <c r="U17" s="19"/>
       <c r="V17" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
@@ -3247,7 +2541,7 @@
         <v>71</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>31</v>
@@ -3302,7 +2596,7 @@
         <v>72</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>36</v>
@@ -3357,7 +2651,7 @@
         <v>73</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>36</v>
@@ -3409,10 +2703,10 @@
         <v>45</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>51</v>
@@ -3464,10 +2758,10 @@
         <v>61</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>51</v>
@@ -3519,10 +2813,10 @@
         <v>62</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>31</v>
@@ -3574,10 +2868,10 @@
         <v>46</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>36</v>
@@ -3629,10 +2923,10 @@
         <v>47</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>36</v>
@@ -3684,10 +2978,10 @@
         <v>48</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>36</v>
@@ -3739,10 +3033,10 @@
         <v>49</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J28" s="19" t="s">
         <v>36</v>
@@ -3794,10 +3088,10 @@
         <v>50</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>36</v>
@@ -3849,10 +3143,10 @@
         <v>63</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J30" s="19" t="s">
         <v>36</v>
@@ -3957,7 +3251,7 @@
         <v>66</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="19" t="s">
@@ -4161,7 +3455,7 @@
     </row>
     <row r="37" spans="1:25" s="38" customFormat="1" ht="14.4" collapsed="1">
       <c r="A37" s="33" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>1</v>
@@ -4195,7 +3489,7 @@
       <c r="U37" s="37"/>
       <c r="V37" s="37"/>
       <c r="W37" s="31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="X37" s="31"/>
       <c r="Y37" s="31"/>
@@ -4567,7 +3861,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:Y2"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -4590,120 +3884,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="12" customFormat="1" ht="48" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="J1" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="K1" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="L1" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="N1" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="O1" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="P1" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="Q1" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="R1" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="S1" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="T1" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="U1" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="V1" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="W1" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="R1" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="S1" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="T1" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="U1" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="V1" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="W1" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="47"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="46"/>
     </row>
     <row r="2" spans="1:25" s="12" customFormat="1" ht="48" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
       <c r="W2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Y2" s="30" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="13" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>2</v>
@@ -4747,7 +4041,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="22" t="s">
@@ -4785,7 +4079,7 @@
       </c>
       <c r="U4" s="22"/>
       <c r="V4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
@@ -4858,7 +4152,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -4881,114 +4175,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="12" customFormat="1" ht="48" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="J1" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="K1" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="L1" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="N1" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="O1" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="P1" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="Q1" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="R1" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="S1" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="T1" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="U1" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="V1" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="W1" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="R1" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="S1" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="T1" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="U1" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="V1" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="W1" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="47"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="46"/>
     </row>
     <row r="2" spans="1:25" s="12" customFormat="1" ht="48" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
       <c r="W2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Y2" s="30" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="13" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>1</v>
@@ -5024,7 +4318,7 @@
       <c r="W3" s="31"/>
       <c r="X3" s="31"/>
       <c r="Y3" s="31" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5084,247 +4378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:Y7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="23" topLeftCell="A24" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="12.77734375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="7"/>
-    <col min="3" max="3" width="12.88671875" style="7" customWidth="1"/>
-    <col min="4" max="6" width="8.88671875" style="7"/>
-    <col min="7" max="7" width="25.77734375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="34.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="29" style="7" customWidth="1"/>
-    <col min="10" max="14" width="8.88671875" style="7"/>
-    <col min="15" max="15" width="9.44140625" style="7" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="7"/>
-    <col min="18" max="19" width="11.88671875" style="7" customWidth="1"/>
-    <col min="20" max="21" width="8.88671875" style="7"/>
-    <col min="22" max="22" width="8.88671875" style="16"/>
-    <col min="23" max="25" width="3.77734375" style="7" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" s="12" customFormat="1" ht="48" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="47"/>
-    </row>
-    <row r="2" spans="1:25" s="12" customFormat="1" ht="48" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y2" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" customFormat="1" ht="14.4"/>
-    <row r="4" spans="1:25" s="13" customFormat="1">
-      <c r="A4" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="31">
-        <v>10</v>
-      </c>
-      <c r="F4" s="31">
-        <v>8</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="H7" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:Y1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{A9F02702-C13C-4438-B01E-7E7EA14817E3}">
-      <formula1>"Normal,NM,Diag"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{445E18E5-52F2-4E41-82DA-5F1C6A629CB4}">
-      <formula1>"Cycle,Event,IfActive,CE,CA"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4" xr:uid="{CFD88574-4D96-4102-9EE5-62A3DF8AA531}">
-      <formula1>"Cycle,OnWrite,OnWriteWithRepetition,OnChange,OnChangeWithRepetition,IfActive,IfActiveWithRepetition"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4" xr:uid="{7225CF7C-BE77-468A-B3C3-F981C1F6BDCE}">
-      <formula1>"Unsigned,Signed,IEEE float,IEEE double"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="变量已存在，重复定义" sqref="G4" xr:uid="{01B5C9D2-0B6A-4824-A30D-57A475A37D07}"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入数字" sqref="K4:L4 N4 P4:S4" xr:uid="{734EE162-6744-45E1-80AF-322228275580}">
-      <formula1>ISNUMBER(K4)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:F4" xr:uid="{A75A2ED2-1FE6-4398-BB56-06A533E572DE}">
-      <formula1>ISNUMBER(E4)</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -5338,28 +4396,28 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>111</v>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
